--- a/Assets/StreamingAssets/levels/Level5.xlsx
+++ b/Assets/StreamingAssets/levels/Level5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBstudio\Documents\GitHub\Project\Assets\StreamingAssets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428AA064-A81B-426B-AD4F-D7B5305A1E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A23373E-B54A-419F-B10B-582FE172D377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9492" yWindow="2304" windowWidth="16452" windowHeight="12132" activeTab="1" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
+    <workbookView xWindow="9276" yWindow="1692" windowWidth="16452" windowHeight="12132" activeTab="1" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Prop" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,11 @@
     <t>Background</t>
   </si>
   <si>
-    <t>BgTest.png</t>
+    <t>Level0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level0</t>
+    <t>Bg8.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +417,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -442,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -450,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -464,7 +465,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -476,8 +477,32 @@
       <c r="B1">
         <v>0</v>
       </c>
-      <c r="O1">
-        <v>0</v>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>4</v>
       </c>
       <c r="P1">
         <v>0</v>
@@ -490,8 +515,26 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>0</v>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>15</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -504,16 +547,55 @@
       <c r="B3">
         <v>9</v>
       </c>
-      <c r="O3">
-        <v>0</v>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>15</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O4">
-        <v>0</v>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -523,19 +605,70 @@
       <c r="A5">
         <v>6</v>
       </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
       <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>15</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6">
+        <v>9</v>
+      </c>
       <c r="O6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -546,10 +679,40 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -562,8 +725,44 @@
       <c r="B8">
         <v>9</v>
       </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>9</v>
+      </c>
+      <c r="N8">
+        <v>9</v>
+      </c>
       <c r="O8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -575,6 +774,42 @@
       </c>
       <c r="B9">
         <v>0</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>15</v>
       </c>
       <c r="O9">
         <v>0</v>
